--- a/補助元帳.xlsx
+++ b/補助元帳.xlsx
@@ -14,7 +14,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="行事費_B事業" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="行事費_C事業" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'普通預金_ゆうちょ'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'普通預金_A銀行'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'会費収入_正会員'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'会費収入_準会員'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'行事費_B事業'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'行事費_C事業'!1:3</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -470,8 +477,10 @@
           <t>普通預金　ゆうちょ</t>
         </is>
       </c>
-      <c r="G1" t="b">
-        <v>1</v>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>資産</t>
+        </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
@@ -659,6 +668,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -697,8 +714,10 @@
           <t>普通預金　A銀行</t>
         </is>
       </c>
-      <c r="G1" t="b">
-        <v>1</v>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>資産</t>
+        </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
@@ -862,6 +881,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -900,8 +927,10 @@
           <t>会費収入　正会員</t>
         </is>
       </c>
-      <c r="G1" t="b">
-        <v>1</v>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>収入</t>
+        </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
@@ -1119,6 +1148,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1157,8 +1194,10 @@
           <t>会費収入　準会員</t>
         </is>
       </c>
-      <c r="G1" t="b">
-        <v>1</v>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>収入</t>
+        </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
@@ -1290,6 +1329,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1328,8 +1375,10 @@
           <t>行事費　B事業</t>
         </is>
       </c>
-      <c r="G1" t="b">
-        <v>1</v>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>支出</t>
+        </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
@@ -1517,6 +1566,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1555,8 +1612,10 @@
           <t>行事費　C事業</t>
         </is>
       </c>
-      <c r="G1" t="b">
-        <v>1</v>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>支出</t>
+        </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
@@ -1656,5 +1715,13 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/補助元帳.xlsx
+++ b/補助元帳.xlsx
@@ -30,7 +30,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy年m月d日"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -75,8 +75,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -489,179 +492,183 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="E2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="n">
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
         <v>789012</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>入会金収入</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
         <v>799012</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="n">
         <v>804012</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44353</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">現金引出 </t>
         </is>
       </c>
-      <c r="F7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="n">
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
         <v>50000</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="5" t="n">
         <v>754012</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B8" s="3" t="inlineStr"/>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr"/>
+      <c r="C8" s="4" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>15000</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>50000</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="5" t="n">
         <v>754012</v>
       </c>
     </row>
@@ -685,7 +692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,156 +733,96 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="E2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="n">
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
         <v>987654</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
-        <v>44326</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>会費収入</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>準会員</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">佐藤建設 </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>990654</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="n">
-        <v>44367</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>行事費</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>B事業</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>会場費 ××ホテル</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>290000</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>700654</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="F7" s="4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>290000</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>700654</v>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>987654</v>
       </c>
     </row>
   </sheetData>
@@ -939,209 +886,213 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="E2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="n">
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44291</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">鈴木 </t>
         </is>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="n">
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44291</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">田中 </t>
         </is>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
-      <c r="F7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="n">
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="5" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>2021-04-01</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>前受金</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr"/>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">吉田 </t>
         </is>
       </c>
-      <c r="F8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="n">
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="5" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B9" s="3" t="inlineStr"/>
-      <c r="C9" s="3" t="inlineStr"/>
-      <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr"/>
+      <c r="C9" s="4" t="inlineStr"/>
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>20000</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="5" t="n">
         <v>20000</v>
       </c>
     </row>
@@ -1165,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,124 +1157,96 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="E2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="n">
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
-        <v>44326</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>普通預金</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>A銀行</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">佐藤建設 </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B6" s="3" t="inlineStr"/>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>3000</v>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1387,180 +1310,152 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="E2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="n">
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>文房具購入 〇〇HC</t>
         </is>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>1100</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>普通預金</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>A銀行</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>会場費 ××ホテル</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>290000</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>291100</v>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>前払金</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>会場費予約金 ××ホテル</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>11100</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="2" t="n">
-        <v>44367</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>前払金</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>会場費予約金 ××ホテル</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>301100</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B8" s="3" t="inlineStr"/>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n">
-        <v>301100</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>301100</v>
+      <c r="F7" s="5" t="n">
+        <v>11100</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>11100</v>
       </c>
     </row>
   </sheetData>
@@ -1624,91 +1519,95 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="E2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="n">
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/補助元帳.xlsx
+++ b/補助元帳.xlsx
@@ -30,7 +30,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy年m月d日"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -75,11 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -492,183 +489,179 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="E2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="n">
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="n">
         <v>789012</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44306</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>入会金収入</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>799012</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>44306</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="n">
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
         <v>804012</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>44353</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">現金引出 </t>
         </is>
       </c>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>50000</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="4" t="n">
         <v>754012</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B8" s="4" t="inlineStr"/>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr"/>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="4" t="n">
         <v>15000</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="4" t="n">
         <v>50000</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="4" t="n">
         <v>754012</v>
       </c>
     </row>
@@ -692,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,96 +726,156 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="E2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="n">
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="n">
         <v>987654</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>会費収入</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>準会員</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">佐藤建設 </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>990654</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="2" t="n">
+        <v>44367</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>行事費</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>B事業</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>会場費 ××ホテル</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>290000</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>700654</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>987654</v>
+      <c r="F7" s="4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>290000</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>700654</v>
       </c>
     </row>
   </sheetData>
@@ -886,213 +939,209 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="E2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="n">
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44291</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">鈴木 </t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="n">
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="4" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>44291</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">田中 </t>
         </is>
       </c>
-      <c r="F6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="n">
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="4" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>44306</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="4" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>2021-04-01</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="B8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>前受金</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr"/>
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">吉田 </t>
         </is>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="F8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="4" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B9" s="4" t="inlineStr"/>
-      <c r="C9" s="4" t="inlineStr"/>
-      <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr"/>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="n">
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="n">
         <v>20000</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="4" t="n">
         <v>20000</v>
       </c>
     </row>
@@ -1116,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,96 +1206,124 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="E2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="n">
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>普通預金</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>A銀行</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">佐藤建設 </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1310,152 +1387,180 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="E2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="n">
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44322</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>文房具購入 〇〇HC</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="4" t="n">
         <v>1100</v>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>44367</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>普通預金</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>A銀行</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>会場費 ××ホテル</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>290000</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>291100</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="2" t="n">
+        <v>44367</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>前払金</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>会場費予約金 ××ホテル</t>
         </is>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F7" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>11100</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="3" t="n">
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>301100</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr"/>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="F7" s="5" t="n">
-        <v>11100</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>11100</v>
+      <c r="F8" s="4" t="n">
+        <v>301100</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>301100</v>
       </c>
     </row>
   </sheetData>
@@ -1519,95 +1624,91 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="E2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="n">
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/補助元帳.xlsx
+++ b/補助元帳.xlsx
@@ -15,12 +15,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="行事費_C事業" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'普通預金_ゆうちょ'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'普通預金_A銀行'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'会費収入_正会員'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'会費収入_準会員'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'行事費_B事業'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'行事費_C事業'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'普通預金_ゆうちょ'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'普通預金_A銀行'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'会費収入_正会員'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'会費収入_準会員'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'行事費_B事業'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'行事費_C事業'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -958,20 +958,20 @@
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" s="3" t="n">
-        <v>44291</v>
+        <v>44287</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>現金</t>
+          <t>前受金</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">鈴木 </t>
+          <t xml:space="preserve">吉田 </t>
         </is>
       </c>
       <c r="F5" s="5" t="n">
@@ -989,7 +989,7 @@
         <v>44291</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
       <c r="D6" s="4" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">田中 </t>
+          <t xml:space="preserve">鈴木 </t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
@@ -1014,24 +1014,20 @@
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="3" t="n">
-        <v>44306</v>
+        <v>44291</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>普通預金</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>ゆうちょ</t>
-        </is>
-      </c>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">木村 </t>
+          <t xml:space="preserve">田中 </t>
         </is>
       </c>
       <c r="F7" s="5" t="n">
@@ -1045,23 +1041,25 @@
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>2021-04-01</t>
-        </is>
+      <c r="A8" s="3" t="n">
+        <v>44306</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>前受金</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr"/>
+          <t>普通預金</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>ゆうちょ</t>
+        </is>
+      </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">吉田 </t>
+          <t xml:space="preserve">木村 </t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
